--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
@@ -505,6 +505,322 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>27/12/2025 00:49</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>542</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27/12/2025 00:58</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Estatística</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Variáveis Aleatórias e Distribuições Discretas</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>27/12/2025 02:59</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>27/12/2025 03:10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27/12/2025 03:11</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>979</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>27/12/2025 03:11</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>893</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>27/12/2025 03:11</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>892</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27/12/2025 03:11</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>891</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27/12/2025 03:21</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Estatística</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Regressão Linear Múltipla</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>27/12/2025 03:28</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>630</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Gestão da Qualidade</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>27/12/2025 03:31</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1203</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Estatística</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Regressão Linear Múltipla</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>27/12/2025 03:40</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>451</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
@@ -821,6 +821,824 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>27/12/2025 05:40</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>937</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pronouns</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>27/12/2025 05:41</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>936</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27/12/2025 05:42</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>935</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27/12/2025 05:45</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>934</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>27/12/2025 05:47</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>933</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27/12/2025 05:50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>27/12/2025 05:52</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>979</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:01</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>978</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:01</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>977</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:02</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>976</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:06</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>296</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Coesão</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Compreensão E Interpretação</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:11</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Compreensão E Interpretação</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Compreensão E Interpretação</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:16</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Reescritura</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:18</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>85</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Colocação Pronominal</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:27</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sinônimo E Antônimo</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:29</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Denotação E Conotação</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Correlação Verbal</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>27/12/2025 06:37</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Conjunção</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>27/12/2025 07:11</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Funções Sintáticas</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>27/12/2025 08:32</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Compreensão E Interpretação</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>27/12/2025 08:35</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Narração</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>27/12/2025 08:37</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Narração</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>27/12/2025 08:39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Coesão</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>27/12/2025 08:41</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Sinônimo E Antônimo</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>27/12/2025 08:41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Sinônimo E Antônimo</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>27/12/2025 08:42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sinônimo E Antônimo</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>27/12/2025 08:43</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Crase</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>27/12/2025 08:44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Vírgula</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
@@ -1639,6 +1639,406 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:03</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>163</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Vírgula</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:04</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>70</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Conjunção</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:05</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>108</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Emprego de Tempos e Modos</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:07</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>157</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Vírgula</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:08</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>76</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Conjunção</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:10</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>112</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Emprego de Tempos e Modos</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:13</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>121</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Verbos Traiçoeiros</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:15</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>313</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Narração</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:20</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Compreensão E Interpretação</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:21</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Compreensão E Interpretação</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:21</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Compreensão E Interpretação</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:23</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Travessão</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:26</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Funções Sintáticas</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:27</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>168</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Vírgula</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>27/12/2025 10:30</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>196</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Concordância Verbal</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
@@ -2039,6 +2039,566 @@
         <v>1</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:20</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>400</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Gestão da Produção e Operações</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:21</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>491</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Processos Decisórios</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:25</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>536</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:27</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>545</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:28</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1538</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Alavancagem Financeira</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:30</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:32</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:34</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1523</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>DRE</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:41</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Estatística</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Medidas de Variabilidade</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:46</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Estatística</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Testes de Hipóteses</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:49</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Estatística</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:57</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Verbs</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>29/12/2025 04:58</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Pronouns</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>29/12/2025 05:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>29/12/2025 05:05</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Matemática Básica</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Média Ponderada</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>29/12/2025 05:30</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1323</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Matemática Financeira</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Equivalência de Capitais</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>29/12/2025 05:35</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1330</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Matemática Financeira</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Equivalência de Capitais</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>29/12/2025 05:36</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1363</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Matemática Financeira</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Análise de Investimentos</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>29/12/2025 05:38</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Dois-Pontos</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>29/12/2025 05:40</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>240</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Crase</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>29/12/2025 05:41</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Concordância Verbal</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
@@ -2599,6 +2599,544 @@
         <v>1</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:15</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Verbs</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:16</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Pronouns</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:16</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:37</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>952</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:38</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>951</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:40</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:41</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>979</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:43</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>978</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:44</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>977</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:47</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>976</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:47</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Pronouns</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:49</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>974</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:50</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>973</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:52</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>972</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:53</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>971</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:56</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:57</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>29/12/2025 21:58</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>29/12/2025 22:04</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Interpretação de Texto</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>29/12/2025 22:11</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>970</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -9,7 +9,7 @@
     <sheet name="historico" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -413,13 +413,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.5703125" customWidth="1" style="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -566,10 +569,8 @@
           <t>27/12/2025 02:59</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>980</t>
-        </is>
+      <c r="C6" t="n">
+        <v>980</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -594,10 +595,8 @@
           <t>27/12/2025 03:10</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>980</t>
-        </is>
+      <c r="C7" t="n">
+        <v>980</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -719,41 +718,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27/12/2025 03:21</t>
+          <t>27/12/2025 03:28</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1208</v>
+        <v>630</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Estatística</t>
+          <t>Conhecimentos Específicos</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Regressão Linear Múltipla</t>
+          <t>Gestão da Qualidade</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>27/12/2025 03:28</t>
+          <t>27/12/2025 03:40</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>630</v>
+        <v>451</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -762,7 +761,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gestão da Qualidade</t>
+          <t>Gestão de Estoques</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -771,50 +770,50 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27/12/2025 03:31</t>
+          <t>27/12/2025 05:40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1203</v>
+        <v>937</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Estatística</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Regressão Linear Múltipla</t>
+          <t>Pronouns</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>27/12/2025 03:40</t>
+          <t>27/12/2025 05:41</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>451</v>
+        <v>936</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Conhecimentos Específicos</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gestão de Estoques</t>
+          <t>Interpretação de Texto</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -823,15 +822,15 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27/12/2025 05:40</t>
+          <t>27/12/2025 05:42</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -840,24 +839,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pronouns</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>27/12/2025 05:41</t>
+          <t>27/12/2025 05:45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -866,7 +865,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Interpretação de Texto</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -875,15 +874,15 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27/12/2025 05:42</t>
+          <t>27/12/2025 05:47</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -892,7 +891,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Semantic</t>
+          <t>Interpretação de Texto</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -901,15 +900,15 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>27/12/2025 05:45</t>
+          <t>27/12/2025 05:50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>934</v>
+        <v>980</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -918,7 +917,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Semantic</t>
+          <t>Interpretação de Texto</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -927,15 +926,15 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>27/12/2025 05:47</t>
+          <t>27/12/2025 05:52</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>933</v>
+        <v>979</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -948,22 +947,20 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>27/12/2025 05:50</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>980</t>
-        </is>
+          <t>27/12/2025 06:01</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>978</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -976,20 +973,20 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>27/12/2025 05:52</t>
+          <t>27/12/2025 06:01</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -998,7 +995,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Interpretação de Texto</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1007,15 +1004,15 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>27/12/2025 06:01</t>
+          <t>27/12/2025 06:02</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1024,7 +1021,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Interpretação de Texto</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1033,24 +1030,24 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>27/12/2025 06:01</t>
+          <t>27/12/2025 06:06</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>977</v>
+        <v>296</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Inglês</t>
+          <t>Português</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Semantic</t>
+          <t>Coesão</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1059,41 +1056,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>27/12/2025 06:02</t>
+          <t>27/12/2025 06:10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>976</v>
+        <v>334</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Inglês</t>
+          <t>Português</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Semantic</t>
+          <t>Compreensão E Interpretação</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>27/12/2025 06:06</t>
+          <t>27/12/2025 06:11</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1102,7 +1099,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Coesão</t>
+          <t>Compreensão E Interpretação</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1111,17 +1108,15 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>27/12/2025 06:10</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
+          <t>27/12/2025 06:12</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>329</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1139,17 +1134,15 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27/12/2025 06:11</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
+          <t>27/12/2025 06:16</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>301</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1158,7 +1151,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Compreensão E Interpretação</t>
+          <t>Reescritura</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1167,17 +1160,15 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27/12/2025 06:12</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
+          <t>27/12/2025 06:18</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>85</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1186,7 +1177,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Compreensão E Interpretação</t>
+          <t>Colocação Pronominal</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1195,17 +1186,15 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>27/12/2025 06:16</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
+          <t>27/12/2025 06:27</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>263</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1214,24 +1203,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Reescritura</t>
+          <t>Sinônimo E Antônimo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>27/12/2025 06:18</t>
+          <t>27/12/2025 06:29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1240,7 +1229,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Colocação Pronominal</t>
+          <t>Denotação E Conotação</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1249,17 +1238,15 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>27/12/2025 06:27</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
+          <t>27/12/2025 06:30</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>125</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1268,7 +1255,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sinônimo E Antônimo</t>
+          <t>Correlação Verbal</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1277,17 +1264,15 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27/12/2025 06:29</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
+          <t>27/12/2025 06:37</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>62</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1296,26 +1281,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Denotação E Conotação</t>
+          <t>Conjunção</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>27/12/2025 06:30</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
+          <t>27/12/2025 07:11</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>132</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1324,26 +1307,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Correlação Verbal</t>
+          <t>Funções Sintáticas</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>27/12/2025 06:37</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+          <t>27/12/2025 08:32</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>314</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1352,7 +1333,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Conjunção</t>
+          <t>Compreensão E Interpretação</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1361,17 +1342,15 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>27/12/2025 07:11</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
+          <t>27/12/2025 08:37</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>309</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1380,7 +1359,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Funções Sintáticas</t>
+          <t>Narração</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1389,17 +1368,15 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>27/12/2025 08:32</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
+          <t>27/12/2025 08:39</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>279</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1408,26 +1385,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Compreensão E Interpretação</t>
+          <t>Coesão</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>27/12/2025 08:35</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
+          <t>27/12/2025 08:41</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>278</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1436,7 +1411,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Narração</t>
+          <t>Sinônimo E Antônimo</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1445,17 +1420,15 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27/12/2025 08:37</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
+          <t>27/12/2025 08:42</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>261</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1464,7 +1437,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Narração</t>
+          <t>Sinônimo E Antônimo</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1473,17 +1446,15 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>27/12/2025 08:39</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
+          <t>27/12/2025 08:43</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1492,7 +1463,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Coesão</t>
+          <t>Crase</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1501,17 +1472,15 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>27/12/2025 08:41</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
+          <t>27/12/2025 08:44</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>151</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1520,7 +1489,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sinônimo E Antônimo</t>
+          <t>Vírgula</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1529,17 +1498,15 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>27/12/2025 08:41</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
+          <t>27/12/2025 10:03</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>163</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1548,7 +1515,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sinônimo E Antônimo</t>
+          <t>Vírgula</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1557,17 +1524,15 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>27/12/2025 08:42</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
+          <t>27/12/2025 10:04</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>70</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1576,7 +1541,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sinônimo E Antônimo</t>
+          <t>Conjunção</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1585,17 +1550,15 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>27/12/2025 08:43</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
+          <t>27/12/2025 10:05</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>108</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1604,7 +1567,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Crase</t>
+          <t>Emprego de Tempos e Modos</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1613,17 +1576,15 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>27/12/2025 08:44</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
+          <t>27/12/2025 10:07</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>157</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1641,15 +1602,15 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>27/12/2025 10:03</t>
+          <t>27/12/2025 10:08</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1658,7 +1619,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Vírgula</t>
+          <t>Conjunção</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1667,15 +1628,15 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>27/12/2025 10:04</t>
+          <t>27/12/2025 10:10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1684,24 +1645,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Conjunção</t>
+          <t>Emprego de Tempos e Modos</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>27/12/2025 10:05</t>
+          <t>27/12/2025 10:13</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1710,24 +1671,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Emprego de Tempos e Modos</t>
+          <t>Verbos Traiçoeiros</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>27/12/2025 10:07</t>
+          <t>27/12/2025 10:15</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1736,7 +1697,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Vírgula</t>
+          <t>Narração</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -1745,15 +1706,15 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>27/12/2025 10:08</t>
+          <t>27/12/2025 10:20</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1762,7 +1723,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Conjunção</t>
+          <t>Compreensão E Interpretação</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -1771,15 +1732,15 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>27/12/2025 10:10</t>
+          <t>27/12/2025 10:21</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>112</v>
+        <v>349</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1788,24 +1749,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Emprego de Tempos e Modos</t>
+          <t>Compreensão E Interpretação</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>27/12/2025 10:13</t>
+          <t>27/12/2025 10:21</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>121</v>
+        <v>348</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1814,24 +1775,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Verbos Traiçoeiros</t>
+          <t>Compreensão E Interpretação</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>27/12/2025 10:15</t>
+          <t>27/12/2025 10:23</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>313</v>
+        <v>181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1840,26 +1801,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Narração</t>
+          <t>Travessão</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>27/12/2025 10:20</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
+          <t>27/12/2025 10:26</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>129</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1868,7 +1827,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Compreensão E Interpretação</t>
+          <t>Funções Sintáticas</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -1877,17 +1836,15 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>27/12/2025 10:21</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>349</t>
-        </is>
+          <t>27/12/2025 10:27</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>168</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1896,7 +1853,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Compreensão E Interpretação</t>
+          <t>Vírgula</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -1905,17 +1862,15 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>27/12/2025 10:21</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
+          <t>27/12/2025 10:30</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>196</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1924,7 +1879,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Compreensão E Interpretação</t>
+          <t>Concordância Verbal</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -1933,54 +1888,50 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>27/12/2025 10:23</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
+          <t>29/12/2025 04:20</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>400</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Português</t>
+          <t>Conhecimentos Específicos</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Travessão</t>
+          <t>Gestão da Produção e Operações</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>27/12/2025 10:26</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
+          <t>29/12/2025 04:21</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>491</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Português</t>
+          <t>Conhecimentos Específicos</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Funções Sintáticas</t>
+          <t>Processos Decisórios</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -1989,24 +1940,24 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>27/12/2025 10:27</t>
+          <t>29/12/2025 04:25</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>168</v>
+        <v>536</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Português</t>
+          <t>Conhecimentos Específicos</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Vírgula</t>
+          <t>Gestão da Manutenção e Confiabilidade</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2015,76 +1966,76 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>27/12/2025 10:30</t>
+          <t>29/12/2025 04:27</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>196</v>
+        <v>545</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Português</t>
+          <t>Conhecimentos Específicos</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Concordância Verbal</t>
+          <t>Gestão da Manutenção e Confiabilidade</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>29/12/2025 04:20</t>
+          <t>29/12/2025 04:41</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>400</v>
+        <v>1007</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Conhecimentos Específicos</t>
+          <t>Estatística</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Gestão da Produção e Operações</t>
+          <t>Medidas de Variabilidade</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>29/12/2025 04:21</t>
+          <t>29/12/2025 04:57</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>491</v>
+        <v>955</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Conhecimentos Específicos</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Processos Decisórios</t>
+          <t>Verbs</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2093,24 +2044,24 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>29/12/2025 04:25</t>
+          <t>29/12/2025 04:58</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>536</v>
+        <v>954</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Conhecimentos Específicos</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Gestão da Manutenção e Confiabilidade</t>
+          <t>Pronouns</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2119,24 +2070,24 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>29/12/2025 04:27</t>
+          <t>29/12/2025 05:00</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>545</v>
+        <v>953</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Conhecimentos Específicos</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Gestão da Manutenção e Confiabilidade</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2145,78 +2096,76 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>29/12/2025 04:28</t>
+          <t>29/12/2025 05:05</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1538</v>
+        <v>877</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Contabilidade Gerencial</t>
+          <t>Matemática Básica</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Alavancagem Financeira</t>
+          <t>Média Ponderada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>29/12/2025 04:30</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1568</t>
-        </is>
+          <t>29/12/2025 05:38</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>176</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Contabilidade Gerencial</t>
+          <t>Português</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>Dois-Pontos</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>29/12/2025 04:32</t>
+          <t>29/12/2025 05:40</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1565</v>
+        <v>240</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Contabilidade Gerencial</t>
+          <t>Português</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>Crase</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2225,121 +2174,119 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>29/12/2025 04:34</t>
+          <t>29/12/2025 05:41</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1523</v>
+        <v>200</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Contabilidade Gerencial</t>
+          <t>Português</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DRE</t>
+          <t>Concordância Verbal</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>29/12/2025 04:41</t>
+          <t>29/12/2025 21:15</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1007</v>
+        <v>955</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Estatística</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Medidas de Variabilidade</t>
+          <t>Verbs</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>29/12/2025 04:46</t>
+          <t>29/12/2025 21:16</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1191</v>
+        <v>954</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Estatística</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Testes de Hipóteses</t>
+          <t>Pronouns</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>29/12/2025 04:49</t>
+          <t>29/12/2025 21:16</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1241</v>
+        <v>953</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Estatística</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>29/12/2025 04:57</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>955</t>
-        </is>
+          <t>29/12/2025 21:37</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>952</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2348,7 +2295,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Verbs</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2357,17 +2304,15 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>29/12/2025 04:58</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>954</t>
-        </is>
+          <t>29/12/2025 21:38</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>951</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2376,7 +2321,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Pronouns</t>
+          <t>Interpretação de Texto</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2385,17 +2330,15 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>29/12/2025 05:00</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>953</t>
-        </is>
+          <t>29/12/2025 21:40</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>980</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2404,61 +2347,59 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Semantic</t>
+          <t>Interpretação de Texto</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>29/12/2025 05:05</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>877</t>
-        </is>
+          <t>29/12/2025 21:41</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>979</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Matemática Básica</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Média Ponderada</t>
+          <t>Interpretação de Texto</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>29/12/2025 05:30</t>
+          <t>29/12/2025 21:43</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1323</v>
+        <v>978</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Matemática Financeira</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Equivalência de Capitais</t>
+          <t>Interpretação de Texto</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -2467,24 +2408,24 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>29/12/2025 05:35</t>
+          <t>29/12/2025 21:44</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1330</v>
+        <v>977</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Matemática Financeira</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Equivalência de Capitais</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2493,106 +2434,102 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>29/12/2025 05:36</t>
+          <t>29/12/2025 21:47</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1363</v>
+        <v>976</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Matemática Financeira</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Análise de Investimentos</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>29/12/2025 05:38</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
+          <t>29/12/2025 21:47</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>975</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Português</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Dois-Pontos</t>
+          <t>Pronouns</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>29/12/2025 05:40</t>
+          <t>29/12/2025 21:49</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>240</v>
+        <v>974</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Português</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Crase</t>
+          <t>Interpretação de Texto</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>29/12/2025 05:41</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
+          <t>29/12/2025 21:50</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>973</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Português</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Concordância Verbal</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -2601,17 +2538,15 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>29/12/2025 21:15</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>955</t>
-        </is>
+          <t>29/12/2025 21:52</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>972</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2620,7 +2555,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Verbs</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -2629,17 +2564,15 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>29/12/2025 21:16</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>954</t>
-        </is>
+          <t>29/12/2025 21:53</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>971</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2648,7 +2581,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Pronouns</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -2657,17 +2590,15 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>29/12/2025 21:16</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>953</t>
-        </is>
+          <t>29/12/2025 21:56</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>881</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2685,15 +2616,15 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>29/12/2025 21:37</t>
+          <t>29/12/2025 21:57</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>952</v>
+        <v>880</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2711,15 +2642,15 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>29/12/2025 21:38</t>
+          <t>29/12/2025 21:58</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>951</v>
+        <v>879</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2737,17 +2668,15 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>29/12/2025 21:40</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>980</t>
-        </is>
+          <t>29/12/2025 22:04</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>878</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2765,15 +2694,15 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>29/12/2025 21:41</t>
+          <t>29/12/2025 22:11</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2782,7 +2711,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Interpretação de Texto</t>
+          <t>Semantic</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -2791,349 +2720,27 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>29/12/2025 21:43</t>
+          <t>31/12/2025 02:46</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>978</v>
+        <v>515</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Inglês</t>
+          <t>Conhecimentos Específicos</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Interpretação de Texto</t>
+          <t>Layout e Arranjos Físicos</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:44</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>977</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Semantic</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:47</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>976</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Semantic</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:47</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>975</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Pronouns</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:49</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>974</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Interpretação de Texto</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:50</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>973</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Semantic</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:52</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>972</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Semantic</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:53</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>971</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Semantic</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:56</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>881</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Semantic</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:57</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>880</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Semantic</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>29/12/2025 21:58</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>879</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Interpretação de Texto</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>29/12/2025 22:04</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>878</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Interpretação de Texto</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>29/12/2025 22:11</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>970</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Inglês</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Semantic</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
         <v>0</v>
       </c>
     </row>

--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -9,7 +9,7 @@
     <sheet name="historico" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -413,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2744,6 +2744,2086 @@
         <v>0</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>102</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>31/12/2025 02:50</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>516</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>103</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>31/12/2025 02:50</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>511</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>104</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>31/12/2025 02:51</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>507</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>105</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>31/12/2025 02:56</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>512</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>106</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:12</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>729</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>107</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:13</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>735</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>108</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:14</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1782</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>109</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:15</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>110</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:17</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>733</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>111</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:19</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>734</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>112</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:19</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>730</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>113</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:20</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>728</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>114</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:21</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>732</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>115</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:22</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>839</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>116</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:24</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>798</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>117</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:27</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>800</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>118</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:28</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>835</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>119</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:31</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>797</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>120</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:32</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1787</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>121</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:34</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>802</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>122</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:36</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>412</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>123</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:39</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>408</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>124</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:46</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>409</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>125</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>31/12/2025 05:46</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>410</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>126</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:10</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>750</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>127</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:11</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>756</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>128</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:13</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>771</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>129</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:14</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>416</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>130</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:14</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>423</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>131</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:15</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>414</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>132</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:15</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>422</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>133</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:17</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>420</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>134</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:18</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>421</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>135</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>31/12/2025 06:18</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>838</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Gestão da Cadeia de Suprimentos</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>136</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:30</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1744</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>137</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:31</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1747</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>138</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:41</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>139</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:43</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1769</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>140</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:52</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>141</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:55</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1733</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>142</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:56</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>143</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:57</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>144</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:57</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1773</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>145</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:58</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1717</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>146</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>31/12/2025 10:59</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>147</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:00</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Noções Iniciais Da Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>148</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:01</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1417</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Contabilidade Básica</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>149</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:02</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1421</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Contabilidade Básica</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>150</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:03</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Contabilidade Básica</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>151</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:04</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Aspectos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>152</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:04</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Contabilidade Básica</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>153</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:06</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1416</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Aspectos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>154</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:07</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1429</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Contabilidade Básica</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>155</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:09</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1428</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Contabilidade Básica</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>156</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:09</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1427</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Contabilidade Básica</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>157</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:10</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1414</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Contabilidade Gerencial</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Aspectos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>158</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:15</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>15</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Ortografia Oficial</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>159</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:17</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>17</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Ortografia Oficial</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>160</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:20</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>24</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Ortografia Oficial</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>161</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:22</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>21</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Ortografia Oficial</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>162</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:26</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>16</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Ortografia Oficial</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>164</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:32</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>122</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Verbos Traiçoeiros</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>165</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:33</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>121</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Verbos Traiçoeiros</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>166</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:37</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>276</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Ambiguidade</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>167</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:40</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>277</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Ambiguidade</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>168</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:46</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>275</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Ambiguidade</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>169</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:52</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>220</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Regência Verbal</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>170</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:53</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>225</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Regência Verbal</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>171</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:56</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>229</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Regência Verbal</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>172</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>31/12/2025 11:59</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>217</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Regência Verbal</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>173</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:05</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>222</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Regência Verbal</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>174</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:20</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>182</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Travessão</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>175</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:23</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>180</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Travessão</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>176</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:25</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>181</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Travessão</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>177</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:29</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>308</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Coesão</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>178</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:32</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>294</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Coesão</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>179</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:35</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>288</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Coesão</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>180</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:37</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>295</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Coesão</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>181</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:41</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>281</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Coesão</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>182</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>31/12/2025 12:45</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>303</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Reescritura</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F157" sqref="F157"/>
@@ -4824,6 +4824,370 @@
         <v>1</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>183</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>01/01/2026 04:17</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Matemática Financeira</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Juros Compostos</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>184</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>01/01/2026 04:28</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1257</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Matemática Financeira</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Juros Simples</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>185</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>01/01/2026 04:35</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1267</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Matemática Financeira</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Juros Compostos</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>186</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>01/01/2026 05:08</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Matemática Financeira</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Juros Compostos</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>187</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:10</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1715</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>188</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:11</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>189</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:11</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1714</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>190</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:12</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1719</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>191</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:14</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1718</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>192</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:18</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>193</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:22</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1724</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>194</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:22</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>195</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:23</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1716</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>196</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>01/01/2026 16:24</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1717</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Contabilidade De Custos</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Custos: Conceitos Introdutórios</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F157" sqref="F157"/>
@@ -5188,6 +5188,526 @@
         <v>0</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>197</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>09/01/2026 10:51</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>439</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>198</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>09/01/2026 10:55</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>443</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>199</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>09/01/2026 10:57</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>200</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>09/01/2026 10:59</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>828</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>201</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:02</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>757</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>202</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:06</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1811</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>203</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:08</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>814</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>204</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:08</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>434</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>205</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:09</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>206</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:09</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>438</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>207</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:10</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>208</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:13</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1806</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>209</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:13</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>853</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>210</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:15</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1791</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>211</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:16</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>444</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>212</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:17</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>435</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>213</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:18</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>780</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>214</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:19</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>775</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>215</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:20</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>759</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>216</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>09/01/2026 11:21</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1804</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/banco_de_dados/historico_respostas.xlsx
+++ b/banco_de_dados/historico_respostas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F157" sqref="F157"/>
@@ -5708,6 +5708,526 @@
         <v>1</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>217</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:39</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>871</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>218</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:41</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>794</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>219</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:43</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>504</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>220</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:45</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>818</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>221</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:46</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>499</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>222</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:49</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>816</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>223</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:51</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>500</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>224</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:52</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>779</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>225</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:53</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>870</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>226</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>10/01/2026 04:57</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>505</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Engenharia Organizacional</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>227</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>10/01/2026 05:28</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>856</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>228</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>10/01/2026 05:37</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>868</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>229</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>10/01/2026 05:51</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>774</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>230</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>10/01/2026 05:53</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>447</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>231</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>10/01/2026 05:59</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>801</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>232</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>10/01/2026 06:10</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>449</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>233</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>10/01/2026 06:18</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>768</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>234</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>10/01/2026 06:19</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>832</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>235</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>10/01/2026 06:20</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>450</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>236</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>10/01/2026 06:20</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
